--- a/図書管理システム_テーブル設計書.xlsx
+++ b/図書管理システム_テーブル設計書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -107,18 +107,15 @@
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
+    <t xml:space="preserve">stock (在庫台帳テーブル)</t>
+  </si>
+  <si>
     <t xml:space="preserve">資料ID</t>
   </si>
   <si>
     <t xml:space="preserve">book_id</t>
   </si>
   <si>
-    <t xml:space="preserve">資料を廃棄・紛失した場合削除される（NULL）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stock (在庫台帳テーブル)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> auto increment</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   </si>
   <si>
     <t xml:space="preserve">manager_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">役職</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -377,6 +380,21 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
         <color rgb="FFD0D1D2"/>
       </left>
       <right style="thin">
@@ -484,11 +502,19 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,20 +534,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -532,31 +550,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,7 +603,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFD0D1D2"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF767C85"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -610,7 +628,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFD0D1D2"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -640,10 +658,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -793,52 +811,44 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -859,15 +869,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.04"/>
   </cols>
@@ -877,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -909,24 +919,24 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -942,7 +952,7 @@
       <c r="D4" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7"/>
@@ -959,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9"/>
@@ -967,16 +977,16 @@
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="9"/>
@@ -984,16 +994,16 @@
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="10"/>
       <c r="G7" s="8"/>
     </row>
@@ -1002,59 +1012,51 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+    <row r="9" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1081,9 +1083,9 @@
       <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.61"/>
   </cols>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1121,94 +1123,94 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="10"/>
       <c r="F7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1216,32 +1218,32 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="19"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="19"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1268,9 +1270,9 @@
       <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.04"/>
@@ -1284,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1315,42 +1317,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7"/>
@@ -1358,18 +1360,18 @@
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="9"/>
@@ -1377,18 +1379,18 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="9"/>
@@ -1396,18 +1398,18 @@
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10"/>
@@ -1415,79 +1417,79 @@
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" s="22" customFormat="true" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1511,12 +1513,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.04"/>
@@ -1530,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1561,42 +1563,42 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>39</v>
+      <c r="A3" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="7"/>
@@ -1604,18 +1606,26 @@
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -1626,7 +1636,7 @@
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1637,7 +1647,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1648,7 +1658,7 @@
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1659,7 +1669,7 @@
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1668,7 +1678,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" s="22" customFormat="true" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -1677,7 +1687,7 @@
       <c r="G11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/図書管理システム_テーブル設計書.xlsx
+++ b/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郵便番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post_no</t>
   </si>
   <si>
     <t xml:space="preserve">住所</t>
@@ -657,7 +663,7 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1264,10 +1270,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1359,9 +1365,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>51</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>51</v>
       </c>
@@ -1369,13 +1373,13 @@
         <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
@@ -1407,13 +1411,13 @@
         <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
@@ -1426,15 +1430,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
@@ -1452,7 +1454,7 @@
       <c r="E9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1470,26 +1472,47 @@
       <c r="D10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="21"/>
+      <c r="C12" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1532,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1567,10 +1590,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>19</v>
@@ -1606,13 +1629,13 @@
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -1625,7 +1648,7 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -1636,7 +1659,7 @@
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1647,7 +1670,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1658,7 +1681,7 @@
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1669,7 +1692,7 @@
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>

--- a/図書管理システム_テーブル設計書.xlsx
+++ b/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="貸出台帳" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="会員台帳" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="管理者情報" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="分類コード表" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -243,6 +244,12 @@
   </si>
   <si>
     <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClassCode (分類コードテーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分類</t>
   </si>
 </sst>
 </file>
@@ -667,7 +674,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -881,7 +888,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -1089,7 +1096,7 @@
       <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1272,11 +1279,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1536,10 +1543,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1724,4 +1731,100 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;Kffffffページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/図書管理システム_テーブル設計書.xlsx
+++ b/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t xml:space="preserve">manager_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manager_name</t>
   </si>
   <si>
     <t xml:space="preserve">役職</t>
@@ -674,7 +677,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -888,7 +891,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -1096,7 +1099,7 @@
       <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.10546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1283,7 +1286,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1542,15 +1545,16 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.04"/>
   </cols>
   <sheetData>
@@ -1623,7 +1627,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
@@ -1639,10 +1643,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -1740,18 +1744,18 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1800,7 +1804,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>50</v>

--- a/図書管理システム_テーブル設計書.xlsx
+++ b/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -240,19 +240,19 @@
     <t xml:space="preserve">manager_id</t>
   </si>
   <si>
-    <t xml:space="preserve">manager_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">役職</t>
   </si>
   <si>
     <t xml:space="preserve">role</t>
   </si>
   <si>
-    <t xml:space="preserve">ClassCode (分類コードテーブル)</t>
+    <t xml:space="preserve">CategoryCode (分類コードテーブル)</t>
   </si>
   <si>
     <t xml:space="preserve">分類</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_name</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1545,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1627,7 +1627,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
@@ -1643,10 +1643,10 @@
         <v>53</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -1744,18 +1744,22 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.07"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1802,12 +1806,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>

--- a/図書管理システム_テーブル設計書.xlsx
+++ b/図書管理システム_テーブル設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="資料目録" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="78">
   <si>
     <t xml:space="preserve">テーブル名</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">rental (貸出台帳テーブル)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">レンタルID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rental_id</t>
   </si>
   <si>
     <t xml:space="preserve">会員ID</t>
@@ -677,7 +683,7 @@
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="14.14"/>
@@ -891,7 +897,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="13.02"/>
@@ -1093,13 +1099,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.10546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.04"/>
@@ -1139,7 +1145,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -1148,7 +1154,7 @@
       <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1159,11 +1165,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>19</v>
@@ -1172,35 +1178,31 @@
         <v>12</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="21"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>26</v>
@@ -1210,10 +1212,10 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -1223,43 +1225,61 @@
       <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="16"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1286,7 +1306,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1302,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1334,13 +1354,13 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>19</v>
@@ -1357,13 +1377,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
@@ -1377,10 +1397,10 @@
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1393,13 +1413,13 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>36</v>
@@ -1412,13 +1432,13 @@
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>36</v>
@@ -1431,13 +1451,13 @@
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -1450,13 +1470,13 @@
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>26</v>
@@ -1466,18 +1486,18 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>26</v>
@@ -1487,18 +1507,18 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>26</v>
@@ -1509,13 +1529,13 @@
     </row>
     <row r="12" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
@@ -1549,7 +1569,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.03"/>
@@ -1566,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
@@ -1598,13 +1618,13 @@
     </row>
     <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>19</v>
@@ -1621,13 +1641,13 @@
     </row>
     <row r="4" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>16</v>
@@ -1640,13 +1660,13 @@
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -1659,7 +1679,7 @@
     </row>
     <row r="6" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -1670,7 +1690,7 @@
     </row>
     <row r="7" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1681,7 +1701,7 @@
     </row>
     <row r="8" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -1692,7 +1712,7 @@
     </row>
     <row r="9" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -1703,7 +1723,7 @@
     </row>
     <row r="10" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -1744,11 +1764,11 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.07"/>
@@ -1759,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="4"/>
@@ -1808,10 +1828,10 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>16</v>
